--- a/Halo board v1.0/IO.xlsx
+++ b/Halo board v1.0/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PB8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,14 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AD输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触摸键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EYE R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +455,14 @@
   </si>
   <si>
     <t>MOUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6(AD6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7(AD7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +571,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1032,7 +1028,7 @@
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1043,7 +1039,7 @@
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1068,7 +1064,7 @@
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1079,7 +1075,7 @@
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1266,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1300,7 +1296,7 @@
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1308,50 +1304,50 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>119</v>
+      <c r="B8" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>120</v>
+      <c r="B9" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>121</v>
+      <c r="B10" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>122</v>
+      <c r="B11" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1361,7 +1357,7 @@
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1372,7 +1368,7 @@
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1381,7 +1377,7 @@
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1390,7 +1386,7 @@
       <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1401,7 +1397,7 @@
       <c r="B17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -1410,7 +1406,7 @@
       <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1438,26 +1434,26 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1518,41 +1514,39 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Halo board v1.0/IO.xlsx
+++ b/Halo board v1.0/IO.xlsx
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
